--- a/biology/Botanique/Parc_des_Gayeulles/Parc_des_Gayeulles.xlsx
+++ b/biology/Botanique/Parc_des_Gayeulles/Parc_des_Gayeulles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc des Gayeulles ou parc des bois est le plus grand parc de la ville de Rennes, dans le département français d'Ille-et-Vilaine en région Bretagne. Base de loisirs située au nord-est de l'agglomération, c'est un parc principalement forestier d'environ 100 ha, qui comprend également 5 plans d'eau. Il a abrité l'ancien hippodrome construit par le maire Edgar Le Bastard.
@@ -512,12 +524,14 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La municipalité menée par Henri Fréville le fait construire en 1967 sous le nom de parc des Bois, mais il n'a été ouvert au public qu'en 1978, afin de laisser le temps aux jeunes arbres de pousser[1].
-Un ensemble de terrains proches est acheté par la ville sous la municipalité d'Edmond Hervé, dont un ancien hippodrome[2] (détruit pour raisons de sécurité) et une ferme nommée les Basses-Gayeules. Ces terrains sont ensuite convertis en une base de loisir, les Gayeulles, qui finira par donner son nom au parc entier[1]. La ferme des Basses-Gayeulles date de la fin du XVe siècle et comporte un pigeonnier, une étable à chevaux et une étable à vaches, un puits et un fournil. Elle faisait partie des propriétés de l'évêque[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La municipalité menée par Henri Fréville le fait construire en 1967 sous le nom de parc des Bois, mais il n'a été ouvert au public qu'en 1978, afin de laisser le temps aux jeunes arbres de pousser.
+Un ensemble de terrains proches est acheté par la ville sous la municipalité d'Edmond Hervé, dont un ancien hippodrome (détruit pour raisons de sécurité) et une ferme nommée les Basses-Gayeules. Ces terrains sont ensuite convertis en une base de loisir, les Gayeulles, qui finira par donner son nom au parc entier. La ferme des Basses-Gayeulles date de la fin du XVe siècle et comporte un pigeonnier, une étable à chevaux et une étable à vaches, un puits et un fournil. Elle faisait partie des propriétés de l'évêque.
 Sur ses 100 ha, se trouvent un camping, une ferme pour enfants, ouverte l'année suivante, ainsi qu'une piscine (complexe aquatique complet), la patinoire « Le Blizz », un minigolf et de nombreux terrains de sport : terrains de football, de tennis, de squash, circuits pour footing, etc.
-Avec l'aménagement du secteur intra-rocade nord-est, le quartier Via Silva, un corridor forestier sera aménagé pour créer une continuité entre le Bois des Gayeulles et la Forêt de Rennes[4].
+Avec l'aménagement du secteur intra-rocade nord-est, le quartier Via Silva, un corridor forestier sera aménagé pour créer une continuité entre le Bois des Gayeulles et la Forêt de Rennes.
 </t>
         </is>
       </c>
@@ -546,10 +560,12 @@
           <t>Équipements</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le parc des Gayeulles (100 Ha) est une véritable base de loisirs offrant un parcours santé, un accro-branches, des équipements pour exercices physiques en plein air, un minigolf, des barbecues, des terrains de tennis, de squash, de football et de rugby, des pédalos, une patinoire, une piscine et une buvette. Un camping et deux espaces de jardins familiaux font également partie du parc[1].
-Le camping est ouvert en 1979 et rénové en 2001 par la ville de Rennes où il acquiert trois étoiles. La société d'économie mixte Citédia qui gère les 178 emplacements estivaux du camping depuis 1991 emploie deux personnes toute l'année et trois autres en été. Les occupants du camping sont principalement des touristes français ou étrangers, bien qu'une dizaine d'emplacement soient occupés à l'année. Le camping ne dispose d'aucun équipement hormis une épicerie, mais profite de son emplacement favorable à côté de la patinoire du Blizz et de la piscine des Gayeulles[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le parc des Gayeulles (100 Ha) est une véritable base de loisirs offrant un parcours santé, un accro-branches, des équipements pour exercices physiques en plein air, un minigolf, des barbecues, des terrains de tennis, de squash, de football et de rugby, des pédalos, une patinoire, une piscine et une buvette. Un camping et deux espaces de jardins familiaux font également partie du parc.
+Le camping est ouvert en 1979 et rénové en 2001 par la ville de Rennes où il acquiert trois étoiles. La société d'économie mixte Citédia qui gère les 178 emplacements estivaux du camping depuis 1991 emploie deux personnes toute l'année et trois autres en été. Les occupants du camping sont principalement des touristes français ou étrangers, bien qu'une dizaine d'emplacement soient occupés à l'année. Le camping ne dispose d'aucun équipement hormis une épicerie, mais profite de son emplacement favorable à côté de la patinoire du Blizz et de la piscine des Gayeulles.
 </t>
         </is>
       </c>
@@ -578,12 +594,14 @@
           <t>Évènements</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Le festival Quartiers d'été se déroule chaque juillet depuis une vingtaine d'années au Parc des Gayeulles.
 L'Open air du Rock'n Solex y a lieu fin mars/début mai.
-Le Made festival s'y déroule en partie fin mai. [1]
-La fête du modélisme[6] de bateaux de l'association Saint-Exupéry a lieu chaque année à proximité de l'étang.</t>
+Le Made festival s'y déroule en partie fin mai. 
+La fête du modélisme de bateaux de l'association Saint-Exupéry a lieu chaque année à proximité de l'étang.</t>
         </is>
       </c>
     </row>
@@ -611,9 +629,11 @@
           <t>Biodiversité</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Outre la ferme qui montre ânes, vaches, chevaux, le parc est riche en biodiversité et une centaine d'espèces ont été recensées comme l'écureuil roux, le chevreuil, le lapin de garenne, la sittelle torchepot ainsi que des animaux migrateurs comme le fuligule[Lequel ?] et le grèbe[Lequel ?]. D'abord planté de conifères, le parc s'est enrichi de nombreuses essences d'arbres tels que les chênes, merisiers, peupliers, les haies bocagères abritent de nombreuses espèces, tout comme les abords des étangs et des zones marécageuses[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Outre la ferme qui montre ânes, vaches, chevaux, le parc est riche en biodiversité et une centaine d'espèces ont été recensées comme l'écureuil roux, le chevreuil, le lapin de garenne, la sittelle torchepot ainsi que des animaux migrateurs comme le fuligule[Lequel ?] et le grèbe[Lequel ?]. D'abord planté de conifères, le parc s'est enrichi de nombreuses essences d'arbres tels que les chênes, merisiers, peupliers, les haies bocagères abritent de nombreuses espèces, tout comme les abords des étangs et des zones marécageuses.
 </t>
         </is>
       </c>
